--- a/image/implementationguide.xlsx
+++ b/image/implementationguide.xlsx
@@ -1412,45 +1412,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="145.30078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.33203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="196.2578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.53125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="195.21484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.8125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="49.06640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/implementationguide.xlsx
+++ b/image/implementationguide.xlsx
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -365,10 +365,6 @@
     <t>ImplementationGuide.version</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Business version of the implementation guide</t>
   </si>
   <si>
@@ -625,6 +621,10 @@
   </si>
   <si>
     <t>ImplementationGuide.packageId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
   </si>
   <si>
     <t>NPM Package name for IG</t>
@@ -1412,45 +1412,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.33203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="145.30078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="195.21484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.8125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.06640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="196.2578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.53125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2707,16 +2707,16 @@
         <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2784,10 +2784,10 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2818,19 +2818,19 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2879,7 +2879,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>48</v>
@@ -2888,7 +2888,7 @@
         <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2931,16 +2931,16 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2990,7 +2990,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3008,7 +3008,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3045,13 +3045,13 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3077,52 +3077,52 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3153,19 +3153,19 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3214,7 +3214,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3232,10 +3232,10 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3243,11 +3243,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3266,16 +3266,16 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3325,7 +3325,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3343,10 +3343,10 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3377,19 +3377,19 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3438,7 +3438,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3456,10 +3456,10 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3490,16 +3490,16 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3549,7 +3549,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3567,7 +3567,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3601,16 +3601,16 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3660,7 +3660,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3678,7 +3678,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3712,19 +3712,19 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3773,7 +3773,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3791,7 +3791,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3825,16 +3825,16 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3860,14 +3860,14 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3902,7 +3902,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3913,11 +3913,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3936,17 +3936,17 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3995,7 +3995,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4013,18 +4013,18 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4047,7 +4047,7 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>196</v>
@@ -4106,7 +4106,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>48</v>
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>202</v>
@@ -4302,7 +4302,7 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>208</v>
@@ -4487,7 +4487,7 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>216</v>
@@ -4931,7 +4931,7 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>233</v>
@@ -5040,7 +5040,7 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>236</v>
@@ -5262,7 +5262,7 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>216</v>
@@ -5630,7 +5630,7 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>250</v>
@@ -5926,7 +5926,7 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>216</v>
@@ -6370,7 +6370,7 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>216</v>
@@ -6703,7 +6703,7 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>272</v>
@@ -6812,7 +6812,7 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>275</v>
@@ -7030,7 +7030,7 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>216</v>
@@ -7509,7 +7509,7 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X55" t="s" s="2">
         <v>208</v>
@@ -7585,7 +7585,7 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>293</v>
@@ -7694,7 +7694,7 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>296</v>
@@ -7916,7 +7916,7 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>305</v>
@@ -8138,7 +8138,7 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>216</v>
@@ -8582,7 +8582,7 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>321</v>
@@ -8724,7 +8724,7 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>325</v>
@@ -9020,7 +9020,7 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>216</v>
@@ -9353,7 +9353,7 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>338</v>
@@ -9462,7 +9462,7 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>341</v>
@@ -9680,7 +9680,7 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>216</v>
@@ -10122,7 +10122,7 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>353</v>
@@ -10231,7 +10231,7 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>356</v>
@@ -10449,7 +10449,7 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>216</v>
@@ -11000,7 +11000,7 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>216</v>
@@ -11777,7 +11777,7 @@
         <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>216</v>
@@ -12110,7 +12110,7 @@
         <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>387</v>
@@ -12221,7 +12221,7 @@
         <v>40</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>391</v>
@@ -12332,7 +12332,7 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>395</v>
@@ -12445,7 +12445,7 @@
         <v>40</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>399</v>
@@ -12556,7 +12556,7 @@
         <v>40</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>403</v>
